--- a/orders/project-supplies/ProjectSuppliesRequestForm_FloraCommunications_Order5.xlsx
+++ b/orders/project-supplies/ProjectSuppliesRequestForm_FloraCommunications_Order5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-GIT/flora-hardware/orders/project-supplies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/orders/project-supplies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BED4055-491D-374F-B947-07FBD2760940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B1F607-DC2B-704A-A9A4-9FB7F2CABFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Student Email:</t>
   </si>
@@ -125,16 +125,25 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Proxicast-Low-Loss-Coaxial-Pigtail-Bluetooth/dp/B09GJJSXX8/ref=sr_1_5?crid=3IUDEPPILS0PR&amp;dib=eyJ2IjoiMSJ9.mE3hk-K-xQh4KybFbAFVSyiqPtl1ybMYsVxkmbq-W3DcuFhIk3aQUe4FLrIIBe0V6LG92yNgEjQn10pk_n6N7VmjmWRCOhSrYshdUDY9oK1eNs8B2KLqROPYOD8BRz1P7QT1HK4LXEoVwBHLOlzcyvIUho5r-CzazyxNPmnC0ggdwe2ngUG9sCrrDLvDfip6Ptz8IOyA2jeIHCNq0DlbxD1Aos-Z03SEOkwzw0oqwY_CqA-L6zyF3ovlbAPStA6lQkARoFKkfrUxAl6k3FF5HCsE3cPRKXqZG7FOprzInyQ.pch_CZ8DjGmzGeY4aP-7Ps5qikby1Fu7sf3UKYNya7s&amp;dib_tag=se&amp;keywords=ipex%2Bto%2Bn%2Badapter&amp;qid=1731367167&amp;sprefix=ipex%2Bto%2Bn%2Badapter%2Caps%2C204&amp;sr=8-5&amp;th=1</t>
-  </si>
-  <si>
-    <t>B09GJJSXX8</t>
-  </si>
-  <si>
-    <t>ANT-105-NF</t>
-  </si>
-  <si>
-    <t>Ipex to N Cable Adapter</t>
+    <t>https://www.amazon.ca/Connector-Convertor-Amplifier-Analyzer-Repeater/dp/B09DY57186/ref=mp_s_a_1_3?adgrpid=60589139905&amp;dib=eyJ2IjoiMSJ9.oP-PXgcL7lH2yQ4Y5ga8OvdUDt_Y8VuT-nVKQHWh12l53lhcsOiYzlWeVPiI_LbECiAXkdVtGMRFxfcacUMK_rEDb-BHaxXZ-_uJYMLNEa5pvXeDSFXB8z8KDjxadR3EiqR9sWFQDjt9FkkykL3JbXnGEZCOBLLqxQ3cDkqDmoBTZDpFpKb6hF-lMR-gwWQ2Y5J-8TntPa1rphbHyXg5ag.LsUjAqzo8upnvIywdXaDut0UScy3WHIozDxBV-DYOPk&amp;dib_tag=se&amp;hvadid=667604667561&amp;hvdev=m&amp;hvlocphy=9001604&amp;hvnetw=g&amp;hvqmt=e&amp;hvrand=13411899216465716949&amp;hvtargid=kwd-360765827437&amp;hydadcr=17418_13579758&amp;keywords=n+type+to+sma&amp;qid=1731439224&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>SMA to N Adapter</t>
+  </si>
+  <si>
+    <t>Ipex to N Adapter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/wlaniot-Pigtail-Wireless-Gateway-External/dp/B08ZYK5SL9/ref=sr_1_5?crid=TZIJIA02EYSQ&amp;dib=eyJ2IjoiMSJ9.bXQlwmLt_9XGejtm7en5patDCjOwC7BsyFFV2kbWCPKmYCxdY-vzyhfKaRdtecyqfxZf0cs-Fu5VOo5NeK3jWdjbcBbeE4B363Y8G7CcKsFcYgXX-VQ3VMQfhRfxsmwbXvs-yHlXxYdygHeyFD3IDyr1Q_T0WwSCnxUun5759h0p9cR0IPIdomr9WJlUlXgWEbAhlMJCYd5QJ2ujTGngZzdzgsViKpQ7pbzMgnZm8MQ5Af9tWmj_h68VE6MGAcoBBJucYzGHLrSbCwd1QppwxD_4vwIOqToUG7-2kx44R_I.k2aYHzBiJCACKvx86m2ZtpcfvjedsGuVJAEKCJPyD_o&amp;dib_tag=se&amp;keywords=ipex+to+n&amp;qid=1731440471&amp;sprefix=ipex+to+%2Caps%2C309&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>B08ZYK5SL9</t>
+  </si>
+  <si>
+    <t>B09DY57186</t>
+  </si>
+  <si>
+    <t>GP-AC-UFL-20</t>
   </si>
 </sst>
 </file>
@@ -798,6 +807,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,6 +817,21 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -816,31 +841,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,52 +1169,52 @@
   </sheetPr>
   <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="7" width="40" style="3" customWidth="1"/>
-    <col min="8" max="8" width="91.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-    </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="83" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="55" t="s">
         <v>16</v>
       </c>
@@ -1215,24 +1224,24 @@
       <c r="I3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-    </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="82"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1240,15 +1249,15 @@
       <c r="I4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-    </row>
-    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1266,7 +1275,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1278,13 +1287,13 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-    </row>
-    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
+    </row>
+    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -1336,57 +1345,73 @@
         <v>1</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>30</v>
+      <c r="D8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="68" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="68" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="68">
-        <v>9.66</v>
+        <v>10.39</v>
       </c>
       <c r="K8" s="63">
         <f>J8*B8</f>
-        <v>9.66</v>
+        <v>10.39</v>
       </c>
       <c r="L8" s="58"/>
       <c r="M8" s="34"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="67">
+        <v>1</v>
+      </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
+      <c r="D9" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="68">
+        <v>10.98</v>
+      </c>
       <c r="K9" s="63">
         <f t="shared" ref="K9:K57" si="0">J9*B9</f>
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="17"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -1407,7 +1432,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>4</v>
       </c>
@@ -1428,7 +1453,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -1449,7 +1474,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>6</v>
       </c>
@@ -1470,7 +1495,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>7</v>
       </c>
@@ -1491,7 +1516,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>8</v>
       </c>
@@ -1512,7 +1537,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>9</v>
       </c>
@@ -1533,7 +1558,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>10</v>
       </c>
@@ -1554,7 +1579,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>11</v>
       </c>
@@ -1575,7 +1600,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>12</v>
       </c>
@@ -1596,7 +1621,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>13</v>
       </c>
@@ -1617,7 +1642,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>14</v>
       </c>
@@ -1638,7 +1663,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>15</v>
       </c>
@@ -1659,7 +1684,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>16</v>
       </c>
@@ -1680,7 +1705,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>17</v>
       </c>
@@ -1701,7 +1726,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>18</v>
       </c>
@@ -1722,7 +1747,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>19</v>
       </c>
@@ -1743,7 +1768,7 @@
       <c r="M26" s="12"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>20</v>
       </c>
@@ -1764,7 +1789,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -1785,7 +1810,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>22</v>
       </c>
@@ -1806,7 +1831,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>23</v>
       </c>
@@ -1827,7 +1852,7 @@
       <c r="M30" s="12"/>
       <c r="N30" s="37"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>24</v>
       </c>
@@ -1848,7 +1873,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
@@ -1869,7 +1894,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18">
         <v>26</v>
       </c>
@@ -1890,7 +1915,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -1911,7 +1936,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="37"/>
     </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -1932,7 +1957,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19">
         <v>29</v>
       </c>
@@ -1953,7 +1978,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="37"/>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
         <v>30</v>
       </c>
@@ -1974,7 +1999,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19">
         <v>31</v>
       </c>
@@ -1995,7 +2020,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
         <v>32</v>
       </c>
@@ -2016,7 +2041,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>33</v>
       </c>
@@ -2037,7 +2062,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="18">
         <v>34</v>
       </c>
@@ -2058,7 +2083,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19">
         <v>35</v>
       </c>
@@ -2079,7 +2104,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="18">
         <v>36</v>
       </c>
@@ -2100,7 +2125,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="36"/>
     </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19">
         <v>37</v>
       </c>
@@ -2121,7 +2146,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="37"/>
     </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="18">
         <v>38</v>
       </c>
@@ -2142,7 +2167,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="36"/>
     </row>
-    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -2163,7 +2188,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="18">
         <v>40</v>
       </c>
@@ -2184,7 +2209,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="36"/>
     </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19">
         <v>41</v>
       </c>
@@ -2205,7 +2230,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="37"/>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="18">
         <v>42</v>
       </c>
@@ -2226,7 +2251,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <v>43</v>
       </c>
@@ -2247,7 +2272,7 @@
       <c r="M50" s="12"/>
       <c r="N50" s="37"/>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18">
         <v>44</v>
       </c>
@@ -2268,7 +2293,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19">
         <v>45</v>
       </c>
@@ -2289,7 +2314,7 @@
       <c r="M52" s="12"/>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="18">
         <v>46</v>
       </c>
@@ -2310,7 +2335,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19">
         <v>47</v>
       </c>
@@ -2331,7 +2356,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="37"/>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="18">
         <v>48</v>
       </c>
@@ -2352,7 +2377,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19">
         <v>49</v>
       </c>
@@ -2373,7 +2398,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="44">
         <v>50</v>
       </c>
@@ -2394,7 +2419,7 @@
       <c r="M57" s="49"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -2409,7 +2434,7 @@
       <c r="J58" s="53"/>
       <c r="K58" s="53">
         <f>SUM(K8:K57)</f>
-        <v>9.66</v>
+        <v>21.37</v>
       </c>
       <c r="L58" s="52"/>
       <c r="M58" s="27"/>
@@ -2432,9 +2457,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{AF732120-1241-A14C-AE40-49854CF39F70}"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://www.amazon.ca/wlaniot-Pigtail-Wireless-Gateway-External/dp/B08ZYK5SL9/ref=sr_1_5?crid=TZIJIA02EYSQ&amp;dib=eyJ2IjoiMSJ9.bXQlwmLt_9XGejtm7en5patDCjOwC7BsyFFV2kbWCPKmYCxdY-vzyhfKaRdtecyqfxZf0cs-Fu5VOo5NeK3jWdjbcBbeE4B363Y8G7CcKsFcYgXX-VQ3VMQfhRfxsmwbXvs-yHlXxYdygHeyFD3IDyr1Q_T0WwSCnxUun5759h0p9cR0IPIdomr9WJlUlXgWEbAhlMJCYd5QJ2ujTGngZzdzgsViKpQ7pbzMgnZm8MQ5Af9tWmj_h68VE6MGAcoBBJucYzGHLrSbCwd1QppwxD_4vwIOqToUG7-2kx44R_I.k2aYHzBiJCACKvx86m2ZtpcfvjedsGuVJAEKCJPyD_o&amp;dib_tag=se&amp;keywords=ipex+to+n&amp;qid=1731440471&amp;sprefix=ipex+to+%2Caps%2C309&amp;sr=8-5" xr:uid="{0D88670A-466A-C844-B2DF-C77CBDC3C939}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.05"/>
-  <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>